--- a/biology/Médecine/Oxaprozine/Oxaprozine.xlsx
+++ b/biology/Médecine/Oxaprozine/Oxaprozine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'oxaprozine, est un médicament de type anti-inflammatoire non stéroïdien. Il est vendu, entre autres, sous la marque Daypro[1].
+L'oxaprozine, est un médicament de type anti-inflammatoire non stéroïdien. Il est vendu, entre autres, sous la marque Daypro.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un anti-inflammatoire non stéroïdien , utilisé pour traiter l'inflammation dans des affections telles que l'arthrose et la polyarthrite rhumatoïde [1]. Le médicament est pris par voie orale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un anti-inflammatoire non stéroïdien , utilisé pour traiter l'inflammation dans des affections telles que l'arthrose et la polyarthrite rhumatoïde . Le médicament est pris par voie orale.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent des douleurs abdominales, des ulcères d'estomac, des saignements gastro-intestinaux, des nausées, une mauvaise fonction rénale ou des démangeaisons[1]. D'autres effets secondaires peuvent inclure des problèmes hépatiques, l'anaphylaxie, l'insuffisance cardiaque, l'infarctus du myocarde ou le syndrome de Stevens-Johnson[1]. L'utilisation de ce médicament en fin de grossesse peut nuire au fœtus[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent des douleurs abdominales, des ulcères d'estomac, des saignements gastro-intestinaux, des nausées, une mauvaise fonction rénale ou des démangeaisons. D'autres effets secondaires peuvent inclure des problèmes hépatiques, l'anaphylaxie, l'insuffisance cardiaque, l'infarctus du myocarde ou le syndrome de Stevens-Johnson. L'utilisation de ce médicament en fin de grossesse peut nuire au fœtus.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament a été brevetée en 1967 et approuvée pour un usage médical en 1983[2].  Il est également disponible au Canada et au Japon[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament a été brevetée en 1967 et approuvée pour un usage médical en 1983.  Il est également disponible au Canada et au Japon.
 </t>
         </is>
       </c>
